--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_sentiment_analysis.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_sentiment_analysis.xlsx
@@ -11,17 +11,18 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
-    <sheet name="Summary" sheetId="8" r:id="rId8"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="168">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -84,6 +85,42 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jul/02/state-democratic-party-wisconsin/wisconsin-sen-ron-johnson-largely-unknown-democrat/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/06/greg-abbott/greg-abbott-embarrassed-says-californians-buying-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/16/scott-walker/gov-scott-walker-says-board-wanted-accept-mickey-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/05/dana-loesch/Planned-parenthood-86-percent-abortion-revenue/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/23/donald-trump/hillary-clinton-obama-birther-fact-check/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/10/ted-cruz/ted-cruz-says-deal-will-facilitate-and-accelerate-/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/aug/26/hillary-clinton/hillary-clinton-says-no-gop-candidate-has-talked-a/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/21/wisconsin-state-afl-cio/wisconsin-afl-cio-says-scott-walker-budget-means-n/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/20/glenn-beck/glenn-beck-says-barack-obama-took-iran-hamas-us-te/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/08/ben-carson/ben-carson-said-no-one-who-signed-declaration-inde/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/07/dinesh-dsouza/hillary-clinton-confederate-battle-flag-nope-old-i/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jun/25/gavin-mcinnes/tweet-civil-war-was-about-secession-not-slavery/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/feb/06/scott-walker/despite-deliberate-actions-scott-walker-calls-chan/</t>
   </si>
   <si>
     <t>http://www.politifact.com/florida/statements/2016/aug/12/carlos-beruff/fbi-admitted-it-cannot-properly-vet-middle-eastern/</t>
@@ -1179,6 +1216,176 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>-0.1318181818181818</v>
+      </c>
+      <c r="C2">
+        <v>0.5772727272727273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>-0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>-0.475</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0.07812424843674844</v>
+      </c>
+      <c r="C9">
+        <v>0.4032627865961199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0.07460724759111856</v>
+      </c>
+      <c r="C10">
+        <v>0.4004198668714798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>-0.4</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0.05</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1198,7 +1405,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>-0.03148148148148148</v>
@@ -1209,7 +1416,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0.1727272727272727</v>
@@ -1220,7 +1427,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>-0.06780303030303031</v>
@@ -1231,7 +1438,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-0.1325757575757576</v>
@@ -1242,7 +1449,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1253,7 +1460,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -1264,7 +1471,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -1275,7 +1482,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.1666666666666667</v>
@@ -1286,7 +1493,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0.05000000000000002</v>
@@ -1297,7 +1504,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1308,7 +1515,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0.4166666666666667</v>
@@ -1319,7 +1526,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1330,7 +1537,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0.175</v>
@@ -1341,7 +1548,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0.28</v>
@@ -1352,7 +1559,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0.125</v>
@@ -1363,7 +1570,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>-0.046875</v>
@@ -1374,7 +1581,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1385,7 +1592,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>-0.04375</v>
@@ -1396,7 +1603,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0.3</v>
@@ -1407,7 +1614,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>-1.850371707708594E-17</v>
@@ -1418,7 +1625,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0.125</v>
@@ -1429,7 +1636,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1440,7 +1647,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0.45</v>
@@ -1451,7 +1658,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0.625</v>
@@ -1462,7 +1669,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0.0625</v>
@@ -1473,7 +1680,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>-0.6999999999999998</v>
@@ -1484,7 +1691,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0.2</v>
@@ -1495,7 +1702,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0.02083333333333334</v>
@@ -1506,7 +1713,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1517,7 +1724,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>0.04513888888888887</v>
@@ -1563,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C66"/>
   <sheetViews>
@@ -1584,7 +1791,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1595,7 +1802,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>-0.4</v>
@@ -1606,7 +1813,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1617,7 +1824,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>-0.03055555555555556</v>
@@ -1628,7 +1835,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>-0.01250000000000001</v>
@@ -1639,7 +1846,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>-0.05</v>
@@ -1650,7 +1857,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -1661,7 +1868,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1672,7 +1879,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1683,7 +1890,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1694,7 +1901,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>-0.2212121212121212</v>
@@ -1705,7 +1912,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1716,7 +1923,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0.08749999999999998</v>
@@ -1727,7 +1934,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1738,7 +1945,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1749,7 +1956,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1760,7 +1967,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>-0.2</v>
@@ -1771,7 +1978,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1782,7 +1989,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1793,7 +2000,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1804,7 +2011,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>0.1138742165794404</v>
@@ -1815,7 +2022,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1826,7 +2033,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1837,7 +2044,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>-0.3312499999999999</v>
@@ -1848,7 +2055,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <v>-0.2366666666666666</v>
@@ -1859,7 +2066,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>0.2875</v>
@@ -1870,7 +2077,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1881,7 +2088,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1892,7 +2099,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -1903,7 +2110,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>0.1428571428571428</v>
@@ -1914,7 +2121,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>0.02499999999999999</v>
@@ -1925,7 +2132,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>0.08750000000000002</v>
@@ -1936,7 +2143,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1947,7 +2154,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>-0.0625</v>
@@ -1958,7 +2165,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>0.1996212121212121</v>
@@ -1969,7 +2176,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>-0.2188888888888889</v>
@@ -1980,7 +2187,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1991,7 +2198,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>0.4874999999999999</v>
@@ -2002,7 +2209,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2013,7 +2220,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>-0.5</v>
@@ -2024,7 +2231,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <v>-0.275</v>
@@ -2035,7 +2242,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <v>0.625</v>
@@ -2046,7 +2253,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B44">
         <v>0.3372159090909091</v>
@@ -2057,7 +2264,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B45">
         <v>-0.08333333333333333</v>
@@ -2068,7 +2275,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>0.1186201298701299</v>
@@ -2079,7 +2286,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <v>-0.125</v>
@@ -2090,7 +2297,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <v>-1</v>
@@ -2101,7 +2308,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2112,7 +2319,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B50">
         <v>-0.2</v>
@@ -2123,7 +2330,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B51">
         <v>0.7375</v>
@@ -2134,7 +2341,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>0.45</v>
@@ -2145,7 +2352,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2156,7 +2363,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B54">
         <v>-0.1333333333333333</v>
@@ -2167,7 +2374,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>-0.25</v>
@@ -2178,7 +2385,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <v>0.175</v>
@@ -2189,7 +2396,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <v>0.3</v>
@@ -2200,7 +2407,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2211,7 +2418,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B59">
         <v>0.5</v>
@@ -2222,7 +2429,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B60">
         <v>0.2016666666666667</v>
@@ -2233,7 +2440,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>-0.4</v>
@@ -2244,7 +2451,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <v>-0.03111111111111113</v>
@@ -2255,7 +2462,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B63">
         <v>-0.4</v>
@@ -2266,7 +2473,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2277,7 +2484,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2288,7 +2495,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B66">
         <v>0.45</v>
@@ -2369,7 +2576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2390,7 +2597,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -2401,7 +2608,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>0.2125</v>
@@ -2412,7 +2619,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>-0.5</v>
@@ -2423,7 +2630,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>-0.21875</v>
@@ -2434,7 +2641,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2445,7 +2652,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -2456,7 +2663,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>0.05357142857142857</v>
@@ -2467,7 +2674,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>0.3</v>
@@ -2478,7 +2685,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>-0.2705555555555555</v>
@@ -2489,7 +2696,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>-0.25</v>
@@ -2500,7 +2707,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>0.1666666666666667</v>
@@ -2511,7 +2718,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>0.54</v>
@@ -2522,7 +2729,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>0.54</v>
@@ -2533,7 +2740,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>0.05750000000000002</v>
@@ -2544,7 +2751,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <v>0.2625</v>
@@ -2555,7 +2762,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <v>-0.00499999999999996</v>
@@ -2566,7 +2773,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2577,7 +2784,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B19">
         <v>-0.1416666666666667</v>
@@ -2588,7 +2795,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>0.006944444444444435</v>
@@ -2599,7 +2806,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B21">
         <v>0.05227272727272729</v>
@@ -2610,7 +2817,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B22">
         <v>0.2385912698412698</v>
@@ -2621,7 +2828,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>-0.08333333333333333</v>
@@ -2632,7 +2839,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -2643,7 +2850,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B25">
         <v>0.5</v>
@@ -2654,7 +2861,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <v>-0.075</v>
@@ -2665,7 +2872,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <v>-0.2729166666666666</v>
@@ -2676,7 +2883,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B28">
         <v>-0.5</v>
@@ -2687,7 +2894,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B29">
         <v>0.04062499999999999</v>
@@ -2698,7 +2905,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B30">
         <v>0.1791666666666667</v>
@@ -2709,7 +2916,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2755,9 +2962,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2765,34 +2972,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2937,19 +3144,19 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.07812424843674844</v>
       </c>
       <c r="C6">
-        <v>-0.6999999999999998</v>
+        <v>-0.475</v>
       </c>
       <c r="D6">
-        <v>0.1014015852974186</v>
+        <v>-0.0753405571491929</v>
       </c>
       <c r="E6">
-        <v>0.1695672699214366</v>
+        <v>0.1091291398205041</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2958,33 +3165,33 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3646605339105339</v>
+        <v>0.3650796150616939</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.7375</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-0.6999999999999998</v>
       </c>
       <c r="D7">
-        <v>-0.003615318967930908</v>
+        <v>0.1014015852974186</v>
       </c>
       <c r="E7">
-        <v>0.1859647121121002</v>
+        <v>0.1695672699214366</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2993,50 +3200,85 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.3627244198587482</v>
+        <v>0.3646605339105339</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>0.7375</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-0.003615318967930908</v>
+      </c>
+      <c r="E8">
+        <v>0.1859647121121002</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.3627244198587482</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.54</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-0.5</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.06943719937469936</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.2239186808561809</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.9</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.5509449855699856</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>18</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>2</v>
       </c>
     </row>
